--- a/Smoke_Test.xlsx
+++ b/Smoke_Test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t xml:space="preserve">DEFINIÇÕES</t>
   </si>
@@ -461,22 +461,22 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.8367346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="35.8469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="31.6785714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="12.219387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="23.0561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="11.8061224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -574,8 +574,8 @@
       <c r="G4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>17</v>
+      <c r="H4" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>17</v>
@@ -603,8 +603,12 @@
       <c r="G5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="14"/>
+      <c r="H5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
@@ -616,8 +620,12 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="14"/>
+      <c r="H6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">

--- a/Smoke_Test.xlsx
+++ b/Smoke_Test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t xml:space="preserve">DEFINIÇÕES</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">characters.c, personagens.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">aloca_personagens(); </t>
+    <t xml:space="preserve">aloca_personagens()</t>
   </si>
   <si>
     <t xml:space="preserve">Ler as informações de personagens no arquivo teste “personagens.txt” e armazená-los corretamente em variáveis locais.</t>
@@ -97,26 +97,25 @@
     <t xml:space="preserve">Alocação e liberação de memoria com sucesso, sem vazamento apontado pelo valgrind.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alocação e liberação de memória com pilha vazia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stack.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alocaStack();
-deleteStack();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">criar uma variavel (stack*). colocar nela o retorno de alocaStack(), chamar deleteStack() e checar vazamento de memória com valgrind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alocação e liberação de memória com pilha não vazia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">criar uma variavel (stack*). colocar nela o retorno de alocaStack(), chamar push(), com a variavel criada e um numero aleatório (5 vezes). chamar deleteStack() e checar vazamento de memória com valgrind</t>
+    <t xml:space="preserve">Reunir partes até então separadas no código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">characters.c, characters.h, lists.c, lists.h, personagens.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aloca_personagens(), aloca_circ_list(), cPush()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juntar as duas partes desenvolvidas até aqui, leitura de arquivo e funções de lista dupla circular, e testá-las visando completar a função de alocar personagens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junção sem erros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">não esperado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As funções dos cabeçalhos “characters.h” e “lists.h”, necessitam um do outro. Ao compilar, certos tipos de funções passaram omissos e isso gerou diversos erros.</t>
   </si>
 </sst>
 </file>
@@ -127,7 +126,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -156,8 +155,14 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +203,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA4C2F4"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -305,7 +316,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -366,6 +377,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -378,7 +393,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -395,7 +414,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF00CC00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -459,24 +478,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="1:8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="11.8061224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.8673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1022" min="12" style="2" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -493,6 +515,12 @@
         <v>43053</v>
       </c>
       <c r="I1" s="4"/>
+      <c r="J1" s="4" t="n">
+        <v>43055</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -522,6 +550,12 @@
       <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="J2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="n">
@@ -551,33 +585,45 @@
       <c r="I3" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="J3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="n">
+      <c r="A4" s="16" t="n">
         <v>43053</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -609,86 +655,103 @@
       <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="J5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18" t="s">
+    <row r="6" customFormat="false" ht="112.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="n">
+        <v>43055</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>17</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18" t="s">
+      <c r="A8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Smoke_Test.xlsx
+++ b/Smoke_Test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t xml:space="preserve">DEFINIÇÕES</t>
   </si>
@@ -115,7 +115,13 @@
     <t xml:space="preserve">não esperado</t>
   </si>
   <si>
-    <t xml:space="preserve">As funções dos cabeçalhos “characters.h” e “lists.h”, necessitam um do outro. Ao compilar, certos tipos de funções passaram omissos e isso gerou diversos erros.</t>
+    <t xml:space="preserve">As funções dos cabeçalhos “characters.h” e “lists.h”, necessitam um do outro. Ao compilar, certas definições passaram omissas e isso gerou diversos erros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junção sem erros e verificar se uma solução encontrada para o problema anterior foi bem sucedida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A solução deu certo e todas as funções testadas funcionaram corretamente.</t>
   </si>
 </sst>
 </file>
@@ -126,7 +132,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -157,6 +163,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
@@ -316,7 +328,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -398,6 +410,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -478,27 +494,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:8"/>
+  <dimension ref="1:10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1022" min="12" style="2" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1022" min="12" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -662,7 +678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="112.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="107.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="n">
         <v>43055</v>
       </c>
@@ -698,26 +714,38 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="10" t="n">
+        <v>43057</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>17</v>
+      <c r="K7" s="21" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -731,7 +759,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="18"/>
       <c r="H8" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>17</v>
@@ -742,6 +770,32 @@
       <c r="K8" s="14" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="9" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Smoke_Test.xlsx
+++ b/Smoke_Test.xlsx
@@ -103,7 +103,7 @@
     <t xml:space="preserve">characters.c, characters.h, lists.c, lists.h, personagens.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">aloca_personagens(), aloca_circ_list(), cPush()</t>
+    <t xml:space="preserve">aloca_personagens(), aloca_circ_list(), cPush(), cPop(), libera_circ_list()</t>
   </si>
   <si>
     <t xml:space="preserve">Juntar as duas partes desenvolvidas até aqui, leitura de arquivo e funções de lista dupla circular, e testá-las visando completar a função de alocar personagens</t>
@@ -328,7 +328,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,27 +389,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -496,25 +500,24 @@
   </sheetPr>
   <dimension ref="1:10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1022" min="12" style="2" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="33.75"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1022" min="12" style="2" width="13.0918367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -601,33 +604,33 @@
       <c r="I3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>17</v>
+      <c r="J3" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
+      <c r="A4" s="15" t="n">
         <v>43053</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -636,8 +639,8 @@
       <c r="I4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>17</v>
+      <c r="J4" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>17</v>
@@ -671,36 +674,36 @@
       <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>17</v>
+      <c r="J5" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="107.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="n">
+      <c r="A6" s="15" t="n">
         <v>43055</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="18" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="14" t="s">
@@ -726,7 +729,7 @@
       <c r="D7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -735,7 +738,7 @@
       <c r="G7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="18" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="14" t="s">
@@ -744,57 +747,57 @@
       <c r="J7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="15" t="s">
+      <c r="A8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>16</v>
+      <c r="J8" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="15"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="15"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="14"/>
     </row>
   </sheetData>

--- a/Smoke_Test.xlsx
+++ b/Smoke_Test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
   <si>
     <t xml:space="preserve">DEFINIÇÕES</t>
   </si>
@@ -103,10 +103,10 @@
     <t xml:space="preserve">characters.c, characters.h, lists.c, lists.h, personagens.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">aloca_personagens(), aloca_circ_list(), cPush(), cPop(), libera_circ_list()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juntar as duas partes desenvolvidas até aqui, leitura de arquivo e funções de lista dupla circular, e testá-las visando completar a função de alocar personagens</t>
+    <t xml:space="preserve">aloca_personagens(), aloca_circ_list(), lPush(), lPop(), libera_circ_list()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juntar as duas partes desenvolvidas até aqui, leitura de arquivo e funções de lista dupla, e testá-las visando completar a função de alocar personagens</t>
   </si>
   <si>
     <t xml:space="preserve">Junção sem erros.</t>
@@ -122,6 +122,39 @@
   </si>
   <si>
     <t xml:space="preserve">A solução deu certo e todas as funções testadas funcionaram corretamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Função sorteio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorteio dos personagens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">characters.c, lists.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aloca_personagens(), sorteia_personagens()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checar se a função sorteia_personagens(), que usa a lista de todos os personagens como argumento, sorteia-os de fato aleatoriamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleatoriedade funcionando, sem erros de memória ou qualquer outro tipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">characters.c,  lists.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aloca_personagens(), sorteia_personagens(), libera_list()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Com todas as listas prontas, checar se a nova função que as libera é eficiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que libere toda a memória.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nova função deu certo (a primeira versão não funcionava), ainda que com centenas de erros no valgrind.</t>
   </si>
 </sst>
 </file>
@@ -132,7 +165,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -173,8 +206,14 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +234,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor rgb="FFA4C2F4"/>
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -208,12 +247,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF9CB9C"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
@@ -328,7 +361,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,23 +422,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -418,6 +439,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -455,7 +480,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFC9DAF8"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -468,7 +493,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FFA4C2F4"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFF9CB9C"/>
@@ -500,24 +525,29 @@
   </sheetPr>
   <dimension ref="1:10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="33.75"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1022" min="12" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1022" min="16" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="12.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -538,6 +568,14 @@
         <v>43055</v>
       </c>
       <c r="K1" s="4"/>
+      <c r="L1" s="4" t="n">
+        <v>43064</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="n">
+        <v>43068</v>
+      </c>
+      <c r="O1" s="4"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
@@ -575,6 +613,18 @@
       <c r="K2" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="L2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="n">
@@ -610,27 +660,39 @@
       <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="L3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="n">
+      <c r="A4" s="10" t="n">
         <v>43053</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -643,6 +705,18 @@
         <v>16</v>
       </c>
       <c r="K4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -680,40 +754,64 @@
       <c r="K5" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="L5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="107.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="A6" s="10" t="n">
         <v>43055</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="17" t="s">
         <v>31</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -729,7 +827,7 @@
       <c r="D7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="18" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -738,7 +836,7 @@
       <c r="G7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="14" t="s">
@@ -747,64 +845,134 @@
       <c r="J7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="19" t="s">
         <v>33</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18" t="s">
+      <c r="A8" s="10" t="n">
+        <v>43064</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="A9" s="10" t="n">
+        <v>43068</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="I9" s="14"/>
-      <c r="J9" s="18"/>
+      <c r="J9" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="K9" s="14"/>
+      <c r="L9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="87.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="18"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
